--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515475.974109559</v>
+        <v>1580020.085183122</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114747</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6824689.510645013</v>
+        <v>7299559.025681449</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -713,19 +715,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.7637429421853</v>
+        <v>116.019853058236</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>70.60344219155097</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.0379805399701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1063,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.7321022557091</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>321.4657884121264</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1300,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7885632590091</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>384.18599552514</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610192</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>101.879408500332</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
-        <v>169.9815954867076</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446575</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>104.9037564455521</v>
+        <v>101.3307376196582</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686834</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>99.07883703940942</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296356</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>75.41330364725617</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060523</v>
       </c>
       <c r="T22" t="n">
-        <v>183.082727437053</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>126.0481962669387</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97112932632604</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3007,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
-        <v>157.336837353973</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>153.2052338556505</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>42.08722672245408</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>169.9835185437313</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>316.5461629330468</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3910,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.6183086722457</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3983,10 +3985,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.5432363487527</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180462</v>
       </c>
       <c r="W46" t="n">
-        <v>249.7666352409433</v>
+        <v>227.6357503970921</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.9074190595574</v>
+        <v>456.8988997477843</v>
       </c>
       <c r="C2" t="n">
-        <v>950.0470931132616</v>
+        <v>434.0385738014885</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>414.7863570268929</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>392.8498212151545</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1351.458990130058</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>993.9695752563071</v>
       </c>
       <c r="W2" t="n">
-        <v>1503.227037680497</v>
+        <v>597.5782255566539</v>
       </c>
       <c r="X2" t="n">
-        <v>1091.507038848244</v>
+        <v>589.8986307648053</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.7153793106834</v>
+        <v>472.7068599989103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000785</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>904.3053647676196</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.5008004748155</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="C4" t="n">
-        <v>620.5282373537315</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="D4" t="n">
-        <v>620.5282373537315</v>
+        <v>691.7023242493884</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381719</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>2008.137305270792</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T4" t="n">
-        <v>2008.137305270792</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>2008.137305270792</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="V4" t="n">
-        <v>1726.425837878821</v>
+        <v>1129.871500950105</v>
       </c>
       <c r="W4" t="n">
-        <v>1451.573434051334</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="X4" t="n">
-        <v>1209.009537497139</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="Y4" t="n">
-        <v>982.6667691868811</v>
+        <v>855.0190971226177</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.916180971921</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.916180971921</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.916180971921</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.236586180072</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.899316134963</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>748.3457691779995</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>576.3732060569155</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>413.0564331836862</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>246.8482273365397</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>246.8482273365397</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>80.59125763077188</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4726,13 +4728,13 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
         <v>1451.883781619951</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.436857207411</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707716</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.540941315744</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>974.6885374882575</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>974.6885374882575</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>748.3457691779995</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>729.6507098898962</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4805,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4844,10 +4846,10 @@
         <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.836344226536</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1149.499074181426</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.0860276212348</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>513.1134645001508</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>513.1134645001508</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>346.9052586530044</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9052586530044</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.6482889472365</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.0860276212348</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1600.810541971063</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.909811984363</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>750.6171911693634</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>750.6171911693634</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>362.5505290227574</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1943.23552968699</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1943.23552968699</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2743.677142084793</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.716175139955</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2425.996176307703</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.658906262593</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679216</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>64.68215049679216</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.3657311795693</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C13" t="n">
-        <v>646.3657311795693</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D13" t="n">
-        <v>646.3657311795693</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2142.186684475242</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2142.186684475242</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1862.002235975546</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1580.290768583575</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1305.438364756088</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.874468201893</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.5316998916348</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.6733526114965</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>659.6733526114965</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>236.3807317964968</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>236.3807317964968</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679213</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1142.793917289187</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1142.793917289187</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>1151.74481889779</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295593</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.46571045352</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480042</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.578985780389</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948136</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>64.68215049679213</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>64.68215049679213</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>693.0265871760246</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>505.934876840148</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C16" t="n">
-        <v>333.962313719064</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="D16" t="n">
-        <v>170.6455408458347</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="E16" t="n">
-        <v>170.6455408458347</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679213</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679213</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>2001.75583013582</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.571381636125</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.859914244154</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1165.007510416666</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>922.4436138624716</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y16" t="n">
-        <v>696.1008455522136</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354847</v>
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.933126818043</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>841.9605636969586</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>678.6437908237293</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>512.4355849765828</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.337779732033</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232337</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840366</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840366</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.441863840366</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.099095530108</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,25 +5740,25 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.8276921262043</v>
+        <v>516.5477476675622</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.648645421877</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U22" t="n">
-        <v>1647.464196922181</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V22" t="n">
-        <v>1365.75272953021</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W22" t="n">
-        <v>1090.900325702723</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X22" t="n">
-        <v>848.3364291485279</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y22" t="n">
-        <v>621.99366083827</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>246.0989818976742</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>246.0989818976742</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
         <v>246.0989818976742</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.3327257103126</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>678.3327257103126</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>678.3327257103126</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6418,16 +6420,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>904.6754940205706</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>678.3327257103126</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.622061704626</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>841.6494985835419</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>678.3327257103126</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1589.056897064296</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.130798726949</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.788030416692</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.8534934449018</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>741.8809303238178</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>578.5641574505885</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>412.355951603442</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.962979348603</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2127.962979348603</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1847.778530848907</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1847.778530848907</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1572.92612702142</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1330.362230467225</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.019462156967</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6922,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478502</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629314</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7005,22 +7007,22 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
         <v>821.6753975134684</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.9588572096895</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>683.9862940886055</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886055</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886055</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.883894613695</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1515.031490786208</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.467594232013</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1046.124825921755</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,25 +7162,25 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
         <v>2011.818868109901</v>
@@ -7208,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7257,19 +7259,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7363,19 +7365,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1822.202732251165</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1547.350328423678</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>801.7864626898374</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>801.7864626898374</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>801.7864626898374</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>801.7864626898374</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>64.68215049679213</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>865.1237628945947</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N41" t="n">
-        <v>1665.565375292397</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O41" t="n">
-        <v>2466.0069876902</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335423</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2435.083445558383</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2038.69209585873</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1626.972097026477</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1221.634826981367</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945947</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292397</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>904.2984362694593</v>
+        <v>3751.878227437044</v>
       </c>
       <c r="C43" t="n">
-        <v>732.3258731483753</v>
+        <v>3579.90566431596</v>
       </c>
       <c r="D43" t="n">
-        <v>569.009100275146</v>
+        <v>3416.588891442731</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8008944279995</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679213</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S43" t="n">
-        <v>2086.894866119773</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T43" t="n">
-        <v>1843.555518345673</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U43" t="n">
-        <v>1563.371069845978</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V43" t="n">
-        <v>1563.371069845978</v>
+        <v>4443.239368286854</v>
       </c>
       <c r="W43" t="n">
-        <v>1563.371069845978</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.807173291783</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="Y43" t="n">
-        <v>1094.464404981525</v>
+        <v>3942.044196149109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1651.979813491537</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.079083504837</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>801.7864626898374</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>801.7864626898374</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1515.667965162098</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2316.109577559901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>3116.551189957704</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.752615436018</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2618.263200562268</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2221.871850862615</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2221.871850862615</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2071.828177783067</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K45" t="n">
-        <v>655.1670770651317</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="L45" t="n">
-        <v>655.1670770651317</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="M45" t="n">
-        <v>655.1670770651317</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="N45" t="n">
-        <v>1409.224304214523</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="O45" t="n">
-        <v>1409.224304214523</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.8864989141586</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C46" t="n">
-        <v>709.9139357930745</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D46" t="n">
-        <v>546.5971629198452</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E46" t="n">
-        <v>546.5971629198452</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>374.7353886944056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679213</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>2074.960130429055</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V46" t="n">
-        <v>1793.248663037084</v>
+        <v>1540.491264859199</v>
       </c>
       <c r="W46" t="n">
-        <v>1540.959132490677</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X46" t="n">
-        <v>1298.395235936482</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.052467626224</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>452.4011488286621</v>
+        <v>39.69551252341471</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>412.9692391190645</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>259.1183965798076</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8234,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8383,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8453,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8468,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>414.0314117529057</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>46.32093759061099</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659256</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>657.8632399032651</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9963,7 +9965,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>705.1634862205228</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10370,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>394.7585026918598</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10905,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>313.9854056452248</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659256</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>352.7420867043963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089947</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>781.2186148465696</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093334</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>783.0169950311082</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36.68694446735378</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500715</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.55428850572449</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>250.8913445057862</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>65.23940003763303</v>
+        <v>68.81241886352696</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.06431944377576</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>94.83953384261697</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.82322685930598</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>44.20464122293447</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24376,7 +24378,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>160.1671282623269</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
-        <v>82.80142023467988</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>15.22846315040601</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886477</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>236.8071259955973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>70.15473904492166</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>37.36835779196622</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>11.81538833381074</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>252.7406609959059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>22.33724454826881</v>
+        <v>44.46812939211998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>625555.9841947693</v>
+        <v>621840.9248460218</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469815.901774181</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469815.9017741808</v>
+        <v>633610.9701273675</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633610.9701273676</v>
+        <v>633610.9701273675</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633610.9701273678</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633610.9701273675</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469815.9017741808</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469815.9017741808</v>
+        <v>633610.9701273678</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020594</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="H2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="I2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="J2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="K2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="I2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="J2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="K2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="L2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="M2" t="n">
         <v>421522.8023530853</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020594</v>
+        <v>421522.8023530857</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530855</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346229</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115406</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653738</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182621.065515899</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475635</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.12390475632</v>
+        <v>72380.62724986364</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986368</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>72380.62724986373</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986373</v>
@@ -26445,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498638</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>53631.12390475633</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="P4" t="n">
-        <v>53631.12390475633</v>
+        <v>72380.62724986378</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.9510403079912</v>
+        <v>16178.76120403814</v>
       </c>
       <c r="C6" t="n">
-        <v>186764.6844550452</v>
+        <v>163357.8507814328</v>
       </c>
       <c r="D6" t="n">
-        <v>186764.6844550454</v>
+        <v>186764.6844550451</v>
       </c>
       <c r="E6" t="n">
-        <v>134451.3745662787</v>
+        <v>55652.75635815132</v>
       </c>
       <c r="F6" t="n">
-        <v>209782.3257197411</v>
+        <v>271392.1129147919</v>
       </c>
       <c r="G6" t="n">
-        <v>142501.7131032514</v>
+        <v>271392.1129147919</v>
       </c>
       <c r="H6" t="n">
-        <v>271392.1129147921</v>
+        <v>271392.1129147919</v>
       </c>
       <c r="I6" t="n">
+        <v>271392.1129147919</v>
+      </c>
+      <c r="J6" t="n">
+        <v>144814.8443345031</v>
+      </c>
+      <c r="K6" t="n">
+        <v>252745.5125577723</v>
+      </c>
+      <c r="L6" t="n">
         <v>271392.112914792</v>
       </c>
-      <c r="J6" t="n">
-        <v>125858.4429799754</v>
-      </c>
-      <c r="K6" t="n">
-        <v>271392.112914792</v>
-      </c>
-      <c r="L6" t="n">
-        <v>271392.1129147919</v>
-      </c>
       <c r="M6" t="n">
-        <v>208518.1759494183</v>
+        <v>91328.24145962422</v>
       </c>
       <c r="N6" t="n">
         <v>271392.1129147919</v>
       </c>
       <c r="O6" t="n">
-        <v>209782.3257197411</v>
+        <v>271392.1129147923</v>
       </c>
       <c r="P6" t="n">
-        <v>209782.325719741</v>
+        <v>271392.112914792</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629552</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629552</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.5201544024733</v>
+        <v>285.2640442864225</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>93.94268159712401</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3957164660863555</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.8285004100398</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>106.6262035512181</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>101.1659342747065</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.569742547918082</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28773,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>415.010189472638</v>
+        <v>2.304553167390613</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.5700052857312</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>236.5429566883217</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34954,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35103,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>376.6404523968816</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>9.041314756164967</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099016</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>634.6913501810429</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>666.8514437878999</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37090,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>357.4788798574138</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>291.4703189309952</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>315.166724894165</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>209.9034401867724</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>742.9065724139467</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099016</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1580020.085183122</v>
+        <v>1579323.423978032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114747</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>260.6847962944029</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.019853058236</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>70.60344219155097</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905705</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>334.2553197328295</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>135.7074041394968</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1530,10 +1530,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610192</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>3.270355224247373</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446575</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>182.5581258257949</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3307376196582</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.631722686834</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.87597792716814</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725617</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399629</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060523</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>43.79602191976615</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>26.07316689400187</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>200.3509450707811</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>82.83364797050405</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3954,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>252.8865117506184</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4185,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>146.3034971231916</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180462</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>227.6357503970921</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477843</v>
+        <v>422.0020284912555</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014885</v>
+        <v>399.1417025449597</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268929</v>
+        <v>379.889485770364</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151545</v>
+        <v>357.9529499586257</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449588</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516412</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516412</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516412</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516412</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873579</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
         <v>1361.464950229786</v>
@@ -4354,28 +4354,28 @@
         <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1714.181193660505</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130058</v>
+        <v>1455.826284256917</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563071</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566539</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648053</v>
+        <v>686.6168705509135</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.7068599989103</v>
+        <v>685.3200045462079</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000785</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231744</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>425.3664405251914</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>425.3664405251914</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="M3" t="n">
-        <v>425.3664405251914</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="N3" t="n">
-        <v>425.3664405251914</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="O3" t="n">
-        <v>904.3053647676196</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="P3" t="n">
         <v>1383.244289010048</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.0190971226177</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>855.0190971226177</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>691.7023242493884</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
         <v>620.3857159750945</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381719</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014208</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693971</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342076</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950105</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226177</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>855.0190971226177</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.0190971226177</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4755,22 +4755,22 @@
         <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,16 +4810,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,13 +5029,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5053,13 +5053,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5068,10 +5068,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5117,28 +5117,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0932463474637</v>
+        <v>540.252050633783</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0932463474637</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7764734742344</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5682676270879</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5682676270879</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5682676270879</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2279.412351703555</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2279.412351703555</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2036.073003929455</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1755.88855542976</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1474.177088037789</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1199.324684210301</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>956.7607876561067</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>730.4180193458487</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,16 +5281,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
         <v>3833.214576747414</v>
@@ -5357,28 +5357,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.6827951484232</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C16" t="n">
-        <v>514.7102320273392</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D16" t="n">
-        <v>514.7102320273392</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E16" t="n">
-        <v>514.7102320273392</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5454,34 +5454,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044859</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.589460012876</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X16" t="n">
-        <v>913.0255634586812</v>
+        <v>960.0641767715107</v>
       </c>
       <c r="Y16" t="n">
-        <v>686.6827951484232</v>
+        <v>960.0641767715107</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063318</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354847</v>
@@ -5597,22 +5597,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>496.5168264363603</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299894</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358265</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>913.0255634586839</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>686.682795148426</v>
       </c>
     </row>
     <row r="20">
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675622</v>
+        <v>373.4203922683229</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472389</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472389</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472389</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,52 +5910,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299903</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359502</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320151</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778202</v>
+        <v>789.9291292906465</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675622</v>
+        <v>563.5863609803886</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2238.477334839395</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1995.137987065295</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1714.9535385656</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1433.242071173628</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1158.389667346141</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>1158.389667346141</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>932.0468990358834</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>537.2498287642214</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>537.2498287642214</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2256.379208602793</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2086.244161121928</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1842.904813347828</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1562.720364848132</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1281.008897456161</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1006.156493628674</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>763.5925970744794</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>537.2498287642214</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6782,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.341048828269</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1800.156600328573</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>759.1116442217531</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7374,10 +7374,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="41">
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>357.5299206506891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>357.5299206506891</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5299206506891</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3751.878227437044</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C43" t="n">
-        <v>3579.90566431596</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>3416.588891442731</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>3250.380685595584</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>3078.518911370144</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>4591.611874017632</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>4443.239368286854</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W43" t="n">
-        <v>4168.386964459367</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X43" t="n">
-        <v>4168.386964459367</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y43" t="n">
-        <v>3942.044196149109</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7657,10 +7657,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3509.456675241458</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>3509.456675241458</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>3509.456675241458</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N45" t="n">
-        <v>3509.456675241458</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O45" t="n">
-        <v>4398.937953252929</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.6494985835419</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>841.6494985835419</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103126</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
         <v>512.1245198631661</v>
@@ -7833,25 +7833,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1540.491264859199</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.556163447995</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.9922668938</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.6494985835419</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533996</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>39.69551252341471</v>
+        <v>405.9616325404807</v>
       </c>
       <c r="P2" t="n">
         <v>521.3520529641992</v>
@@ -8057,10 +8057,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>412.9692391190645</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>137.4711251360498</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1183965798076</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8458,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8470,7 +8470,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9482,28 +9482,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>153.2864345924293</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,7 +10913,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,10 +10922,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147988</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766268</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500715</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>43.29787195545121</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>5.706183199150047</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352696</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>111.8076272173289</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384261697</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189918889</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>124.6376750862903</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.49506028569671</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886477</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>40.55500922557789</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>87.4191895193691</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>19.21736803859369</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>131.0791068915071</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939211998</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633610.9701273675</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633610.9701273675</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633610.9701273676</v>
+        <v>633610.9701273678</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633610.9701273678</v>
+        <v>633610.9701273676</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083724</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083723</v>
-      </c>
-      <c r="C2" t="n">
-        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
@@ -26325,37 +26325,37 @@
         <v>421522.8023530853</v>
       </c>
       <c r="F2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="G2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="H2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="I2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="J2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="K2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="G2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="H2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="I2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="J2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="M2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="L2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530853</v>
-      </c>
       <c r="N2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="O2" t="n">
-        <v>421522.8023530857</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="P2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361224</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>72380.62724986364</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986368</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="L4" t="n">
-        <v>72380.6272498638</v>
-      </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
@@ -26459,7 +26459,7 @@
         <v>72380.62724986373</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986378</v>
+        <v>72380.62724986373</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16178.76120403814</v>
+        <v>16178.76120403819</v>
       </c>
       <c r="C6" t="n">
-        <v>163357.8507814328</v>
+        <v>163357.8507814329</v>
       </c>
       <c r="D6" t="n">
         <v>186764.6844550451</v>
       </c>
       <c r="E6" t="n">
-        <v>55652.75635815132</v>
+        <v>55601.72569596702</v>
       </c>
       <c r="F6" t="n">
-        <v>271392.1129147919</v>
+        <v>271341.0822526077</v>
       </c>
       <c r="G6" t="n">
-        <v>271392.1129147919</v>
+        <v>271341.0822526078</v>
       </c>
       <c r="H6" t="n">
-        <v>271392.1129147919</v>
+        <v>271341.0822526078</v>
       </c>
       <c r="I6" t="n">
-        <v>271392.1129147919</v>
+        <v>271341.0822526077</v>
       </c>
       <c r="J6" t="n">
-        <v>144814.8443345031</v>
+        <v>144763.8136723189</v>
       </c>
       <c r="K6" t="n">
-        <v>252745.5125577723</v>
+        <v>252694.4818955878</v>
       </c>
       <c r="L6" t="n">
-        <v>271392.112914792</v>
+        <v>271341.0822526077</v>
       </c>
       <c r="M6" t="n">
-        <v>91328.24145962422</v>
+        <v>91277.2107974401</v>
       </c>
       <c r="N6" t="n">
-        <v>271392.1129147919</v>
+        <v>271341.0822526077</v>
       </c>
       <c r="O6" t="n">
-        <v>271392.1129147923</v>
+        <v>271341.0822526077</v>
       </c>
       <c r="P6" t="n">
-        <v>271392.112914792</v>
+        <v>271341.0822526077</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>154.9650843542119</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>285.2640442864225</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.94268159712401</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986416</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>279.9424765091179</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1659342747064</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-4.658055840560229e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.304553167390613</v>
+        <v>368.5706731844566</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>390.5700052857312</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>116.1280969225081</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>236.5429566883217</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34935,23 +34935,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="N5" t="n">
+        <v>533.7539620806206</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35178,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35725,7 +35725,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968725</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127355</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112745</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153671</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
